--- a/try.xlsx
+++ b/try.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivenaccip\Documents\kroon_py\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivenaccip\Documents\contenedores\kroon_py\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996446A0-1957-4E24-B188-5193939937B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52ADC64-5BC5-4AF8-9E6E-8059CB976292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>profile</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>https://www.instagram.com/coffeewithalyss/</t>
+  </si>
+  <si>
+    <t>Moons Kitchen</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/moons.kitchenn/</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,9 +411,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{6F97BD66-4D3C-4429-92D7-B5F3CE08CD6C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{23B9DE67-D42C-4EA9-8436-CB68AAD0AB12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
